--- a/output/ADAM_24119419000125.xlsx
+++ b/output/ADAM_24119419000125.xlsx
@@ -1010,10 +1010,10 @@
         <v>44165</v>
       </c>
       <c r="B57">
-        <v>0.5242716999999999</v>
+        <v>0.5207193000000001</v>
       </c>
       <c r="C57">
-        <v>0.0149523643375753</v>
+        <v>0.01258696138541615</v>
       </c>
     </row>
   </sheetData>

--- a/output/ADAM_24119419000125.xlsx
+++ b/output/ADAM_24119419000125.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>ADAM MACRO 1 FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,24 +383,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42490</v>
       </c>
@@ -411,609 +405,444 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42521</v>
       </c>
       <c r="B3">
         <v>0.002871000000000068</v>
       </c>
-      <c r="C3">
-        <v>0.002871000000000068</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42551</v>
       </c>
       <c r="B4">
-        <v>0.03206489999999995</v>
-      </c>
-      <c r="C4">
         <v>0.02911032425905224</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>42582</v>
       </c>
       <c r="B5">
-        <v>0.06528390000000006</v>
-      </c>
-      <c r="C5">
         <v>0.03218692932973499</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>42613</v>
       </c>
       <c r="B6">
-        <v>0.07852989999999993</v>
-      </c>
-      <c r="C6">
         <v>0.01243424405456595</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>42643</v>
       </c>
       <c r="B7">
-        <v>0.1030721000000001</v>
-      </c>
-      <c r="C7">
         <v>0.0227552337677428</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>42674</v>
       </c>
       <c r="B8">
-        <v>0.1046524</v>
-      </c>
-      <c r="C8">
         <v>0.001432635273795668</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>42704</v>
       </c>
       <c r="B9">
-        <v>0.1191617</v>
-      </c>
-      <c r="C9">
         <v>0.01313472002595573</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>42735</v>
       </c>
       <c r="B10">
-        <v>0.1648358999999999</v>
-      </c>
-      <c r="C10">
         <v>0.04081108208045348</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>42766</v>
       </c>
       <c r="B11">
-        <v>0.2194913000000001</v>
-      </c>
-      <c r="C11">
         <v>0.04692111566959789</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>42794</v>
       </c>
       <c r="B12">
-        <v>0.2607841</v>
-      </c>
-      <c r="C12">
         <v>0.03386067616882538</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>42825</v>
       </c>
       <c r="B13">
-        <v>0.2815572</v>
-      </c>
-      <c r="C13">
         <v>0.01647633405275339</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>42855</v>
       </c>
       <c r="B14">
-        <v>0.2790021</v>
-      </c>
-      <c r="C14">
         <v>-0.001993746357946358</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>42886</v>
       </c>
       <c r="B15">
-        <v>0.2325713</v>
-      </c>
-      <c r="C15">
         <v>-0.03630236416343646</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>42916</v>
       </c>
       <c r="B16">
-        <v>0.2373395</v>
-      </c>
-      <c r="C16">
         <v>0.003868498317298075</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>42947</v>
       </c>
       <c r="B17">
-        <v>0.2688813999999999</v>
-      </c>
-      <c r="C17">
         <v>0.02549171023797414</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>42978</v>
       </c>
       <c r="B18">
-        <v>0.2896053000000001</v>
-      </c>
-      <c r="C18">
         <v>0.01633241688309095</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43008</v>
       </c>
       <c r="B19">
-        <v>0.3231238000000001</v>
-      </c>
-      <c r="C19">
         <v>0.02599128586087551</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43039</v>
       </c>
       <c r="B20">
-        <v>0.3353998</v>
-      </c>
-      <c r="C20">
         <v>0.009278043369788991</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43069</v>
       </c>
       <c r="B21">
-        <v>0.3319363</v>
-      </c>
-      <c r="C21">
         <v>-0.002593605300824531</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43100</v>
       </c>
       <c r="B22">
-        <v>0.3407384</v>
-      </c>
-      <c r="C22">
         <v>0.006608499220270625</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43131</v>
       </c>
       <c r="B23">
-        <v>0.4197744999999999</v>
-      </c>
-      <c r="C23">
         <v>0.0589496802657401</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43159</v>
       </c>
       <c r="B24">
-        <v>0.4353212</v>
-      </c>
-      <c r="C24">
         <v>0.01095011919146316</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43190</v>
       </c>
       <c r="B25">
-        <v>0.4128019000000001</v>
-      </c>
-      <c r="C25">
         <v>-0.0156893801889082</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43220</v>
       </c>
       <c r="B26">
-        <v>0.4323813000000001</v>
-      </c>
-      <c r="C26">
         <v>0.01385856007130237</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43251</v>
       </c>
       <c r="B27">
-        <v>0.3897609</v>
-      </c>
-      <c r="C27">
         <v>-0.02975492628952925</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43281</v>
       </c>
       <c r="B28">
-        <v>0.3525113</v>
-      </c>
-      <c r="C28">
         <v>-0.02680288386297236</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43312</v>
       </c>
       <c r="B29">
-        <v>0.3657935999999999</v>
-      </c>
-      <c r="C29">
         <v>0.009820472479601383</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43343</v>
       </c>
       <c r="B30">
-        <v>0.3674542999999999</v>
-      </c>
-      <c r="C30">
         <v>0.001215923108733197</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43373</v>
       </c>
       <c r="B31">
-        <v>0.3679995</v>
-      </c>
-      <c r="C31">
         <v>0.0003986970533496059</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43404</v>
       </c>
       <c r="B32">
-        <v>0.3865601000000001</v>
-      </c>
-      <c r="C32">
         <v>0.01356769501743238</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43434</v>
       </c>
       <c r="B33">
-        <v>0.3949094</v>
-      </c>
-      <c r="C33">
         <v>0.006021592572871493</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43465</v>
       </c>
       <c r="B34">
-        <v>0.4063087000000001</v>
-      </c>
-      <c r="C34">
         <v>0.008172071963957084</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43496</v>
       </c>
       <c r="B35">
-        <v>0.4197143000000001</v>
-      </c>
-      <c r="C35">
         <v>0.00953247320449635</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43524</v>
       </c>
       <c r="B36">
-        <v>0.4197119</v>
-      </c>
-      <c r="C36">
         <v>-1.690480965099717e-06</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43555</v>
       </c>
       <c r="B37">
-        <v>0.4292951</v>
-      </c>
-      <c r="C37">
         <v>0.006750101904478001</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>43585</v>
       </c>
       <c r="B38">
-        <v>0.4420010000000001</v>
-      </c>
-      <c r="C38">
         <v>0.008889626781761306</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>43616</v>
       </c>
       <c r="B39">
-        <v>0.4651761000000001</v>
-      </c>
-      <c r="C39">
         <v>0.01607148677428105</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>43646</v>
       </c>
       <c r="B40">
-        <v>0.4535541000000001</v>
-      </c>
-      <c r="C40">
         <v>-0.007932152319437891</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>43677</v>
       </c>
       <c r="B41">
-        <v>0.4533195000000001</v>
-      </c>
-      <c r="C41">
         <v>-0.0001613975014758129</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>43708</v>
       </c>
       <c r="B42">
-        <v>0.4799990000000001</v>
-      </c>
-      <c r="C42">
         <v>0.01835762886275183</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>43738</v>
       </c>
       <c r="B43">
-        <v>0.4782588999999999</v>
-      </c>
-      <c r="C43">
         <v>-0.001175744037664961</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>43769</v>
       </c>
       <c r="B44">
-        <v>0.4786493000000001</v>
-      </c>
-      <c r="C44">
         <v>0.0002640944695142533</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>43799</v>
       </c>
       <c r="B45">
-        <v>0.4757595999999999</v>
-      </c>
-      <c r="C45">
         <v>-0.001954283547829783</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>43830</v>
       </c>
       <c r="B46">
-        <v>0.470035</v>
-      </c>
-      <c r="C46">
         <v>-0.003879087081662846</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>43861</v>
       </c>
       <c r="B47">
-        <v>0.488734</v>
-      </c>
-      <c r="C47">
         <v>0.01272010530361523</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>43890</v>
       </c>
       <c r="B48">
-        <v>0.5077851</v>
-      </c>
-      <c r="C48">
         <v>0.01279684617937127</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>43921</v>
       </c>
       <c r="B49">
-        <v>0.5229448000000001</v>
-      </c>
-      <c r="C49">
         <v>0.01005428426106625</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>43951</v>
       </c>
       <c r="B50">
-        <v>0.5241463</v>
-      </c>
-      <c r="C50">
         <v>0.0007889320742286987</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>43982</v>
       </c>
       <c r="B51">
-        <v>0.5319986999999999</v>
-      </c>
-      <c r="C51">
         <v>0.005151998859951989</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>44012</v>
       </c>
       <c r="B52">
-        <v>0.5261690000000001</v>
-      </c>
-      <c r="C52">
         <v>-0.003805290435298536</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>44043</v>
       </c>
       <c r="B53">
-        <v>0.5346831000000001</v>
-      </c>
-      <c r="C53">
         <v>0.005578739969164692</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>44074</v>
       </c>
       <c r="B54">
-        <v>0.5211211</v>
-      </c>
-      <c r="C54">
         <v>-0.008837003548159306</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>44104</v>
       </c>
       <c r="B55">
-        <v>0.4960137</v>
-      </c>
-      <c r="C55">
         <v>-0.01650585216390732</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>44135</v>
       </c>
       <c r="B56">
-        <v>0.501816</v>
-      </c>
-      <c r="C56">
         <v>0.003878507262333297</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>44165</v>
       </c>
       <c r="B57">
-        <v>0.5207193000000001</v>
-      </c>
-      <c r="C57">
-        <v>0.01258696138541615</v>
+        <v>0.01017994215003704</v>
       </c>
     </row>
   </sheetData>
